--- a/artfynd/A 4155-2024 artfynd.xlsx
+++ b/artfynd/A 4155-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,6 +921,115 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131204756</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ällmora SV om , Srm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>604965</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6546211</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Flen</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Helgesta</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Rolf Olsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Rolf Olsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
